--- a/UseCaseIScenarij/OdabirRestorana.xlsx
+++ b/UseCaseIScenarij/OdabirRestorana.xlsx
@@ -63,15 +63,6 @@
     <t>Scenario</t>
   </si>
   <si>
-    <t>Konfirmacija odnosno izbor odnosno neizbor željenog restorana od više ponuđenih, te dobijanje uputa za izabrani restoran.</t>
-  </si>
-  <si>
-    <t>Imati instalirani aplikaciju i kliknuti opciju za pretragu restorana.</t>
-  </si>
-  <si>
-    <t>Ukoliko je izabran restoran koji se svidio korisniku, dalje korisnik dobija upute kako doći do tog restorana (gps).</t>
-  </si>
-  <si>
     <t>Ukoliko korisnik ne izabere nijedan restoran, može se vratiti na prijašnju formu/aktivnost i samim tim nekad opet izvršiti pretragu.</t>
   </si>
   <si>
@@ -114,26 +105,43 @@
     <t>7. Prikaz upustva/direkcija do restorana</t>
   </si>
   <si>
-    <t>Alternativni tok, mogućnost neizbora:</t>
-  </si>
-  <si>
     <t>1. Izbor usluge "Povratak nazad na pretragu"</t>
   </si>
   <si>
     <t>2. Prikaz forme pretrage restorana</t>
+  </si>
+  <si>
+    <t>Izbor (eng. Confirmation), odnosno odustajanje od potrage, željenog restorana od više ponuđenih, te dobijanje uputa za izabrani restoran.</t>
+  </si>
+  <si>
+    <t>Imati instaliranu aplikaciju i kliknuti opciju za pretragu restorana.</t>
+  </si>
+  <si>
+    <t>Ukoliko je izabran restoran koji se svidio korisniku, dalje korisnik dobija upute kako doći do tog restorana (gps navigacija ka tom restoranu).</t>
+  </si>
+  <si>
+    <t>Alternativni tok, ako korisnik ne odabere restoran:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -157,36 +165,81 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+  <dxfs count="14">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -210,37 +263,37 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A3:B11" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A3:B11" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A3:B11"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Naziv" dataDxfId="2"/>
-    <tableColumn id="2" name="Odabir restorana"/>
+    <tableColumn id="1" name="Naziv" dataDxfId="11"/>
+    <tableColumn id="2" name="Odabir restorana" dataDxfId="10"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="D1:F8" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="D1:F8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table32" displayName="Table32" ref="B21:D28" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="B21:D28"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Korisnik aplikacije"/>
-    <tableColumn id="2" name="Odabir restorana (vicinor app)"/>
-    <tableColumn id="3" name="GPS upustvo do restorana"/>
+    <tableColumn id="1" name="Korisnik aplikacije" dataDxfId="7"/>
+    <tableColumn id="2" name="Odabir restorana (vicinor app)" dataDxfId="6"/>
+    <tableColumn id="3" name="GPS upustvo do restorana" dataDxfId="5"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="D12:F14" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="D12:F14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table53" displayName="Table53" ref="B32:D34" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="B32:D34"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Korisnik aplikacije"/>
-    <tableColumn id="2" name="Odabir restorana (vicinor app)"/>
-    <tableColumn id="3" name="GPS upustvo do restorana"/>
+    <tableColumn id="1" name="Korisnik aplikacije" dataDxfId="2"/>
+    <tableColumn id="2" name="Odabir restorana (vicinor app)" dataDxfId="1"/>
+    <tableColumn id="3" name="GPS upustvo do restorana" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -571,164 +624,229 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
-    <col min="2" max="2" width="209.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="2" max="2" width="73.42578125" customWidth="1"/>
+    <col min="3" max="3" width="45.140625" customWidth="1"/>
     <col min="4" max="4" width="60.140625" customWidth="1"/>
     <col min="5" max="5" width="83.140625" customWidth="1"/>
     <col min="6" max="6" width="36.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="5"/>
+      <c r="C28" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D32" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="5"/>
+      <c r="C34" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E14" t="s">
-        <v>34</v>
-      </c>
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="29" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="61" orientation="landscape" r:id="rId1"/>
   <tableParts count="3">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>

--- a/UseCaseIScenarij/OdabirRestorana.xlsx
+++ b/UseCaseIScenarij/OdabirRestorana.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>Naziv</t>
   </si>
@@ -109,9 +109,6 @@
   </si>
   <si>
     <t>2. Prikaz forme pretrage restorana</t>
-  </si>
-  <si>
-    <t>Izbor (eng. Confirmation), odnosno odustajanje od potrage, željenog restorana od više ponuđenih, te dobijanje uputa za izabrani restoran.</t>
   </si>
   <si>
     <t>Imati instaliranu aplikaciju i kliknuti opciju za pretragu restorana.</t>
@@ -626,8 +623,8 @@
   </sheetPr>
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,12 +660,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -676,7 +673,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -684,7 +681,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -808,7 +805,7 @@
     </row>
     <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>

--- a/UseCaseIScenarij/OdabirRestorana.xlsx
+++ b/UseCaseIScenarij/OdabirRestorana.xlsx
@@ -96,9 +96,6 @@
     <t>Odabir restorana (vicinor app)</t>
   </si>
   <si>
-    <t>3. Prikaz liste svih ponuđenih restorana na osnovu ispunjenih podataka</t>
-  </si>
-  <si>
     <t>6. Korištenje GPS za direkcije</t>
   </si>
   <si>
@@ -118,6 +115,9 @@
   </si>
   <si>
     <t>Alternativni tok, ako korisnik ne odabere restoran:</t>
+  </si>
+  <si>
+    <t>3. Prikaz liste svih ponuđenih restorana na osnovu ispunjenih podataka, pri čemu ukoliko je dati restoran među omiljenim drugačije je naznačen u odnosu na ostale</t>
   </si>
 </sst>
 </file>
@@ -624,7 +624,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,7 +673,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -681,7 +681,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -758,10 +758,10 @@
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
       <c r="C24" s="5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D24" s="5"/>
     </row>
@@ -783,13 +783,13 @@
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
       <c r="C28" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D28" s="5"/>
     </row>
@@ -805,7 +805,7 @@
     </row>
     <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -824,7 +824,7 @@
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -832,7 +832,7 @@
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="5"/>
       <c r="C34" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D34" s="5"/>
     </row>
